--- a/[5] Tester Results/RECORDER_EFFECT_RANGE_BY_SEX_METRIC.xlsx
+++ b/[5] Tester Results/RECORDER_EFFECT_RANGE_BY_SEX_METRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.113378317345676</v>
+        <v>-0.7616223279121405</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9530345442232142</v>
+        <v>-0.582006088820655</v>
       </c>
       <c r="E2" t="n">
-        <v>-2950.492367647057</v>
+        <v>-180.8690490196082</v>
       </c>
       <c r="F2" t="n">
-        <v>-1168.801034313726</v>
+        <v>-127.6566274509806</v>
       </c>
     </row>
     <row r="3">
@@ -497,68 +497,68 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.214775986505303</v>
+        <v>-0.7614657358179575</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.214775986505303</v>
+        <v>-0.7614657358179575</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7735294117646987</v>
+        <v>-6.833823529411767</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7735294117646987</v>
+        <v>-6.833823529411767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.6902067430061777</v>
+        <v>0.6845992206812171</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6902067430061777</v>
+        <v>3.744895403482156</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.84705882352938</v>
+        <v>446.3785980392163</v>
       </c>
       <c r="F4" t="n">
-        <v>-14.84705882352938</v>
+        <v>2229.591666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.766642495005195</v>
+        <v>-0.6775354700182958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8882597779395357</v>
+        <v>1.163593044255852</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4745098039215669</v>
+        <v>-2.766666666666673</v>
       </c>
       <c r="F5" t="n">
-        <v>1.005882352941176</v>
+        <v>3.046078431372546</v>
       </c>
     </row>
     <row r="6">
@@ -569,92 +569,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.113258168077384</v>
+        <v>1.447761975052464</v>
       </c>
       <c r="D6" t="n">
-        <v>2.664804513195625</v>
+        <v>4.083733087803744</v>
       </c>
       <c r="E6" t="n">
-        <v>4509.775720588234</v>
+        <v>13.56421568627452</v>
       </c>
       <c r="F6" t="n">
-        <v>13057.62575980392</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.725387757455572</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.139577585461226</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.402941176470581</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.557843137254906</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1.274214087852067</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.146622975586975</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25.99950980392158</v>
-      </c>
-      <c r="F8" t="n">
-        <v>133.9867647058823</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-1.829882473179254</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-1.829882473179254</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1.270588235294117</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-1.270588235294117</v>
+        <v>51.10735294117649</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/RECORDER_EFFECT_RANGE_BY_SEX_METRIC.xlsx
+++ b/[5] Tester Results/RECORDER_EFFECT_RANGE_BY_SEX_METRIC.xlsx
@@ -545,20 +545,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.6775354700182958</v>
+        <v>1.447761975052464</v>
       </c>
       <c r="D5" t="n">
-        <v>1.163593044255852</v>
+        <v>4.083733087803744</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.766666666666673</v>
+        <v>13.56421568627452</v>
       </c>
       <c r="F5" t="n">
-        <v>3.046078431372546</v>
+        <v>51.10735294117649</v>
       </c>
     </row>
     <row r="6">
@@ -569,20 +569,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.447761975052464</v>
+        <v>-0.6775354700182958</v>
       </c>
       <c r="D6" t="n">
-        <v>4.083733087803744</v>
+        <v>1.163593044255852</v>
       </c>
       <c r="E6" t="n">
-        <v>13.56421568627452</v>
+        <v>-2.766666666666673</v>
       </c>
       <c r="F6" t="n">
-        <v>51.10735294117649</v>
+        <v>3.046078431372546</v>
       </c>
     </row>
   </sheetData>
